--- a/teaching/traditional_assets/database/data/kuwait/kuwait_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07780000000000001</v>
+        <v>0.0174</v>
       </c>
       <c r="E2">
-        <v>0.08610000000000001</v>
+        <v>-0.04169999999999999</v>
       </c>
       <c r="F2">
-        <v>0.109</v>
+        <v>-0.455</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001542231160823254</v>
+        <v>0.001035942917560224</v>
       </c>
       <c r="J2">
-        <v>0.001443703203429939</v>
+        <v>0.0009224886570753545</v>
       </c>
       <c r="K2">
-        <v>3468.6</v>
+        <v>2173.55</v>
       </c>
       <c r="L2">
-        <v>0.3862196439109666</v>
+        <v>0.2924779654174797</v>
       </c>
       <c r="M2">
-        <v>2440.593</v>
+        <v>1895.214</v>
       </c>
       <c r="N2">
-        <v>0.03862119440255345</v>
+        <v>0.03490612326087677</v>
       </c>
       <c r="O2">
-        <v>0.7036248053969902</v>
+        <v>0.8719440546571277</v>
       </c>
       <c r="P2">
-        <v>1878.7</v>
+        <v>1852.1</v>
       </c>
       <c r="Q2">
-        <v>0.02972951160807114</v>
+        <v>0.0341120479753051</v>
       </c>
       <c r="R2">
-        <v>0.5416306290722482</v>
+        <v>0.8521083020864484</v>
       </c>
       <c r="S2">
-        <v>561.893</v>
+        <v>43.114</v>
       </c>
       <c r="T2">
-        <v>0.2302280634255691</v>
+        <v>0.02274888218428104</v>
       </c>
       <c r="U2">
-        <v>37910.2</v>
+        <v>39216.7</v>
       </c>
       <c r="V2">
-        <v>0.5999104332593274</v>
+        <v>0.7222946665045878</v>
       </c>
       <c r="W2">
-        <v>0.09342535677055248</v>
+        <v>0.06267752319636433</v>
       </c>
       <c r="X2">
-        <v>0.0642549455317933</v>
+        <v>0.06112619721520111</v>
       </c>
       <c r="Y2">
-        <v>0.02917041123875919</v>
+        <v>0.001551325981163212</v>
       </c>
       <c r="Z2">
-        <v>0.1399881916156686</v>
+        <v>0.1266326284988871</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04486504365247267</v>
+        <v>0.03974596366192112</v>
       </c>
       <c r="AC2">
-        <v>-0.04486504365247267</v>
+        <v>-0.03974596366192112</v>
       </c>
       <c r="AD2">
-        <v>61232</v>
+        <v>59208.2</v>
       </c>
       <c r="AE2">
-        <v>70.79688083881219</v>
+        <v>26.00695104075597</v>
       </c>
       <c r="AF2">
-        <v>61302.79688083881</v>
+        <v>59234.20695104075</v>
       </c>
       <c r="AG2">
-        <v>23392.59688083881</v>
+        <v>20017.50695104076</v>
       </c>
       <c r="AH2">
-        <v>0.4924081710059469</v>
+        <v>0.5217548615355879</v>
       </c>
       <c r="AI2">
-        <v>0.6085508789734632</v>
+        <v>0.6108760050411148</v>
       </c>
       <c r="AJ2">
-        <v>0.2701669874301784</v>
+        <v>0.2693707361066878</v>
       </c>
       <c r="AK2">
-        <v>0.3723424094075623</v>
+        <v>0.3466276568134641</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>2186.076401285256</v>
+        <v>4589.782945736434</v>
       </c>
       <c r="AP2">
-        <v>835.1516201656128</v>
+        <v>1551.74472488688</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Warba Bank K.S.C.P. (KWSE:WARBABANK)</t>
+          <t>Ahli United Bank K.S.C.P. (KWSE:ALMUTAHED)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,7 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.321</v>
+        <v>-0.0323</v>
+      </c>
+      <c r="E3">
+        <v>-0.07049999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00485414687227746</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004797413486032349</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>55.1</v>
+        <v>107.1</v>
       </c>
       <c r="L3">
-        <v>0.4057437407952872</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="M3">
-        <v>16.2</v>
+        <v>101.7</v>
       </c>
       <c r="N3">
-        <v>0.0119047619047619</v>
+        <v>0.05489285907054569</v>
       </c>
       <c r="O3">
-        <v>0.294010889292196</v>
+        <v>0.9495798319327732</v>
       </c>
       <c r="P3">
-        <v>16.2</v>
+        <v>101.7</v>
       </c>
       <c r="Q3">
-        <v>0.0119047619047619</v>
+        <v>0.05489285907054569</v>
       </c>
       <c r="R3">
-        <v>0.294010889292196</v>
+        <v>0.9495798319327732</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1706.4</v>
+        <v>551.7</v>
       </c>
       <c r="V3">
-        <v>1.253968253968254</v>
+        <v>0.2977816160198629</v>
       </c>
       <c r="W3">
-        <v>0.09234120998826881</v>
+        <v>0.06412789653314173</v>
       </c>
       <c r="X3">
-        <v>0.04973213565366046</v>
+        <v>0.03518953549449788</v>
       </c>
       <c r="Y3">
-        <v>0.04260907433460835</v>
+        <v>0.02893836103864385</v>
       </c>
       <c r="Z3">
-        <v>1.225587144819364</v>
+        <v>0.1850789096126255</v>
       </c>
       <c r="AA3">
-        <v>0.005879648296864301</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04343774383603491</v>
+        <v>0.03518953549449788</v>
       </c>
       <c r="AC3">
-        <v>-0.03755809553917061</v>
+        <v>-0.03518953549449788</v>
       </c>
       <c r="AD3">
-        <v>510.4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>26.9040342737236</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>537.3040342737236</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1169.095965726277</v>
+        <v>-551.7</v>
       </c>
       <c r="AH3">
-        <v>0.2830740700044472</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.3624789664267382</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-6.09844216453468</v>
+        <v>-0.4240584166026134</v>
       </c>
       <c r="AK3">
-        <v>5.216943383774594</v>
+        <v>-0.5158967645408642</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>84.50331125827815</v>
-      </c>
-      <c r="AP3">
-        <v>-193.5589347228935</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boubyan Bank K.S.C.P. (KWSE:BOUBYAN)</t>
+          <t>Gulf Bank K.S.C.P. (KWSE:GBK)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,13 +844,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.154</v>
+        <v>0.0313</v>
       </c>
       <c r="E4">
-        <v>0.202</v>
-      </c>
-      <c r="F4">
-        <v>0.166</v>
+        <v>0.0308</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01434355444200653</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01372072421814247</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>200.6</v>
+        <v>146.1</v>
       </c>
       <c r="L4">
-        <v>0.4919077979401667</v>
+        <v>0.3877388535031847</v>
       </c>
       <c r="M4">
-        <v>79.59999999999999</v>
+        <v>104</v>
       </c>
       <c r="N4">
-        <v>0.01305388828757913</v>
+        <v>0.04849615294940546</v>
       </c>
       <c r="O4">
-        <v>0.3968095712861416</v>
+        <v>0.7118412046543464</v>
       </c>
       <c r="P4">
-        <v>79.59999999999999</v>
+        <v>104</v>
       </c>
       <c r="Q4">
-        <v>0.01305388828757913</v>
+        <v>0.04849615294940546</v>
       </c>
       <c r="R4">
-        <v>0.3968095712861416</v>
+        <v>0.7118412046543464</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +892,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1545.5</v>
+        <v>2690.9</v>
       </c>
       <c r="V4">
-        <v>0.2534520646790646</v>
+        <v>1.254791326649569</v>
       </c>
       <c r="W4">
-        <v>0.1291360885798893</v>
+        <v>0.0696609927049063</v>
       </c>
       <c r="X4">
-        <v>0.04446324559157207</v>
+        <v>0.03853072824033944</v>
       </c>
       <c r="Y4">
-        <v>0.08467284298831719</v>
+        <v>0.03113026446456686</v>
       </c>
       <c r="Z4">
-        <v>0.2726658516424781</v>
+        <v>-0.3618901267767961</v>
       </c>
       <c r="AA4">
-        <v>0.003741172954091391</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.04276072372892673</v>
+        <v>0.03668443247899628</v>
       </c>
       <c r="AC4">
-        <v>-0.03901955077483533</v>
+        <v>-0.03668443247899628</v>
       </c>
       <c r="AD4">
-        <v>736.6</v>
+        <v>325.6</v>
       </c>
       <c r="AE4">
-        <v>17.60349249274868</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>754.2034924927488</v>
+        <v>325.6</v>
       </c>
       <c r="AG4">
-        <v>-791.2965075072512</v>
+        <v>-2365.3</v>
       </c>
       <c r="AH4">
-        <v>0.1100705061401495</v>
+        <v>0.131816525646735</v>
       </c>
       <c r="AI4">
-        <v>0.2623952183416315</v>
+        <v>0.138441260257664</v>
       </c>
       <c r="AJ4">
-        <v>-0.1491182486974181</v>
+        <v>10.71240942028985</v>
       </c>
       <c r="AK4">
-        <v>-0.595495505526427</v>
+        <v>6.977286135693211</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>78.61259338313768</v>
-      </c>
-      <c r="AP4">
-        <v>-84.45000080120079</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ahli United Bank K.S.C.P. (KWSE:ALMUTAHED)</t>
+          <t>Boubyan Bank K.S.C.P. (KWSE:BOUBYAN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,13 +966,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0383</v>
+        <v>0.08779999999999999</v>
       </c>
       <c r="E5">
-        <v>0.0308</v>
-      </c>
-      <c r="F5">
-        <v>0.045</v>
+        <v>0.0418</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,28 +984,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>175.7</v>
+        <v>132.4</v>
       </c>
       <c r="L5">
-        <v>0.5584869675778766</v>
+        <v>0.3678799666574049</v>
       </c>
       <c r="M5">
-        <v>98.2</v>
+        <v>101.4</v>
       </c>
       <c r="N5">
-        <v>0.04662203864596686</v>
+        <v>0.01793452307256938</v>
       </c>
       <c r="O5">
-        <v>0.5589072282299374</v>
+        <v>0.7658610271903323</v>
       </c>
       <c r="P5">
-        <v>98.2</v>
+        <v>101.4</v>
       </c>
       <c r="Q5">
-        <v>0.04662203864596686</v>
+        <v>0.01793452307256938</v>
       </c>
       <c r="R5">
-        <v>0.5589072282299374</v>
+        <v>0.7658610271903323</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,55 +1014,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>415.5</v>
+        <v>703</v>
       </c>
       <c r="V5">
-        <v>0.1972653468166927</v>
+        <v>0.1243389518739277</v>
       </c>
       <c r="W5">
-        <v>0.1093069553315914</v>
+        <v>0.06267752319636433</v>
       </c>
       <c r="X5">
-        <v>0.04205993810621741</v>
+        <v>0.04138474899307469</v>
       </c>
       <c r="Y5">
-        <v>0.06724701722537396</v>
+        <v>0.02129277420328964</v>
       </c>
       <c r="Z5">
-        <v>0.231102622493205</v>
+        <v>0.276102800153433</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04205993810621741</v>
+        <v>0.03768084833735252</v>
       </c>
       <c r="AC5">
-        <v>-0.04205993810621741</v>
+        <v>-0.03768084833735252</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1591.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1591.7</v>
       </c>
       <c r="AG5">
-        <v>-415.5</v>
+        <v>888.7</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.2196781494976262</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.4435558032604152</v>
       </c>
       <c r="AJ5">
-        <v>-0.2457416607523066</v>
+        <v>0.1358328493259561</v>
       </c>
       <c r="AK5">
-        <v>-0.3311812529890005</v>
+        <v>0.307988216946803</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1094,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gulf Bank K.S.C.P. (KWSE:GBK)</t>
+          <t>Kuwait Finance House K.S.C.P. (KWSE:KFH)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,13 +1088,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0906</v>
+        <v>-0.0174</v>
       </c>
       <c r="E6">
-        <v>0.08130000000000001</v>
+        <v>0.0262</v>
       </c>
       <c r="F6">
-        <v>0.109</v>
+        <v>0.32</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>168.2</v>
+        <v>526.6</v>
       </c>
       <c r="L6">
-        <v>0.3648590021691974</v>
+        <v>0.3027480740485225</v>
       </c>
       <c r="M6">
-        <v>95.3</v>
+        <v>449.3</v>
       </c>
       <c r="N6">
-        <v>0.03289837061585197</v>
+        <v>0.02654935236834641</v>
       </c>
       <c r="O6">
-        <v>0.5665873959571939</v>
+        <v>0.8532092669958222</v>
       </c>
       <c r="P6">
-        <v>95.3</v>
+        <v>449.3</v>
       </c>
       <c r="Q6">
-        <v>0.03289837061585197</v>
+        <v>0.02654935236834641</v>
       </c>
       <c r="R6">
-        <v>0.5665873959571939</v>
+        <v>0.8532092669958222</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1154,55 +1139,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3467.2</v>
+        <v>8992.299999999999</v>
       </c>
       <c r="V6">
-        <v>1.196906931786799</v>
+        <v>0.5313593173867825</v>
       </c>
       <c r="W6">
-        <v>0.08318085158993126</v>
+        <v>0.08034052421200379</v>
       </c>
       <c r="X6">
-        <v>0.04426476840419677</v>
+        <v>0.04886494004238114</v>
       </c>
       <c r="Y6">
-        <v>0.03891608318573449</v>
+        <v>0.03147558416962265</v>
       </c>
       <c r="Z6">
-        <v>-1.525479814692255</v>
+        <v>0.2223472113921947</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04283036255746242</v>
+        <v>0.03841751304608074</v>
       </c>
       <c r="AC6">
-        <v>-0.04283036255746242</v>
+        <v>-0.03841751304608074</v>
       </c>
       <c r="AD6">
-        <v>328.7</v>
+        <v>10516.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>328.7</v>
+        <v>10516.7</v>
       </c>
       <c r="AG6">
-        <v>-3138.5</v>
+        <v>1524.400000000001</v>
       </c>
       <c r="AH6">
-        <v>0.1019066811347078</v>
+        <v>0.3832630585388431</v>
       </c>
       <c r="AI6">
-        <v>0.1354905193734542</v>
+        <v>0.6128863065509664</v>
       </c>
       <c r="AJ6">
-        <v>12.98510550268929</v>
+        <v>0.08263405537847748</v>
       </c>
       <c r="AK6">
-        <v>3.014310411064157</v>
+        <v>0.1866536059752665</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1219,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kuwait Finance House K.S.C.P. (KWSE:KFH)</t>
+          <t>Warba Bank K.S.C.P. (KWSE:WARBABANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,10 +1213,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.05139999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.163</v>
+        <v>0.0438</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,28 +1228,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>817.8</v>
+        <v>-22.9</v>
       </c>
       <c r="L7">
-        <v>0.3727608368658553</v>
+        <v>-0.3927958833619211</v>
       </c>
       <c r="M7">
-        <v>411.2</v>
+        <v>16.2</v>
       </c>
       <c r="N7">
-        <v>0.02225192512703403</v>
+        <v>0.01325804075619936</v>
       </c>
       <c r="O7">
-        <v>0.5028124235754463</v>
+        <v>-0.7074235807860262</v>
       </c>
       <c r="P7">
-        <v>411.2</v>
+        <v>16.2</v>
       </c>
       <c r="Q7">
-        <v>0.02225192512703403</v>
+        <v>0.01325804075619936</v>
       </c>
       <c r="R7">
-        <v>0.5028124235754463</v>
+        <v>-0.7074235807860262</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1276,55 +1258,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>7844.4</v>
+        <v>1516.5</v>
       </c>
       <c r="V7">
-        <v>0.4244965988971444</v>
+        <v>1.241099926344218</v>
       </c>
       <c r="W7">
-        <v>0.1370721732426</v>
+        <v>-0.02423280423280423</v>
       </c>
       <c r="X7">
-        <v>0.05164192412751953</v>
+        <v>0.05299937050794629</v>
       </c>
       <c r="Y7">
-        <v>0.08543024911508046</v>
+        <v>-0.07723217474075052</v>
       </c>
       <c r="Z7">
-        <v>0.2116540446674063</v>
+        <v>-0.2322709163346613</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.04366744109482539</v>
+        <v>0.03895688979886507</v>
       </c>
       <c r="AC7">
-        <v>-0.04366744109482539</v>
+        <v>-0.03895688979886507</v>
       </c>
       <c r="AD7">
-        <v>9112.700000000001</v>
+        <v>988.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>9112.700000000001</v>
+        <v>988.9</v>
       </c>
       <c r="AG7">
-        <v>1268.300000000001</v>
+        <v>-527.6</v>
       </c>
       <c r="AH7">
-        <v>0.3302660191359815</v>
+        <v>0.4473041432965442</v>
       </c>
       <c r="AI7">
-        <v>0.5592946750791742</v>
+        <v>0.5374164447584371</v>
       </c>
       <c r="AJ7">
-        <v>0.06422552613988541</v>
+        <v>-0.7599020596284026</v>
       </c>
       <c r="AK7">
-        <v>0.1501159928037119</v>
+        <v>-1.630407911001236</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1350,13 +1332,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0862</v>
+        <v>-0.144</v>
       </c>
       <c r="E8">
-        <v>0.09630000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.076</v>
+        <v>-0.604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1371,85 +1350,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>214.1</v>
+        <v>1.55</v>
       </c>
       <c r="L8">
-        <v>0.5539456662354463</v>
+        <v>0.01178707224334601</v>
       </c>
       <c r="M8">
-        <v>169.6</v>
+        <v>39.5</v>
       </c>
       <c r="N8">
-        <v>0.04991758888627267</v>
+        <v>0.01249367408906883</v>
       </c>
       <c r="O8">
-        <v>0.7921531994395142</v>
+        <v>25.48387096774194</v>
       </c>
       <c r="P8">
-        <v>118.2</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.03478926300918295</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.5520784680056049</v>
+        <v>-0</v>
       </c>
       <c r="S8">
-        <v>51.39999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="T8">
-        <v>0.303066037735849</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>2600.3</v>
+        <v>1360.7</v>
       </c>
       <c r="V8">
-        <v>0.7653343536614081</v>
+        <v>0.4303833502024292</v>
       </c>
       <c r="W8">
-        <v>0.09502041540919581</v>
+        <v>0.0006587615283267457</v>
       </c>
       <c r="X8">
-        <v>0.06849096779156595</v>
+        <v>0.06112619721520111</v>
       </c>
       <c r="Y8">
-        <v>0.02652944761762986</v>
+        <v>-0.06046743568687437</v>
       </c>
       <c r="Z8">
-        <v>0.08884853221765016</v>
+        <v>0.03006264002560468</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04486504365247267</v>
+        <v>0.03974596366192112</v>
       </c>
       <c r="AC8">
-        <v>-0.04486504365247267</v>
+        <v>-0.03974596366192112</v>
       </c>
       <c r="AD8">
-        <v>4621.6</v>
+        <v>3726.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4621.6</v>
+        <v>3726.3</v>
       </c>
       <c r="AG8">
-        <v>2021.3</v>
+        <v>2365.6</v>
       </c>
       <c r="AH8">
-        <v>0.576316839584996</v>
+        <v>0.5409921746831401</v>
       </c>
       <c r="AI8">
-        <v>0.6623670708286754</v>
+        <v>0.6159173553719008</v>
       </c>
       <c r="AJ8">
-        <v>0.3730092823266715</v>
+        <v>0.4279924735851788</v>
       </c>
       <c r="AK8">
-        <v>0.4617897694820772</v>
+        <v>0.5044676177681104</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1475,10 +1454,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0915</v>
+        <v>0.0196</v>
       </c>
       <c r="E9">
-        <v>0.105</v>
+        <v>-0.0129</v>
+      </c>
+      <c r="F9">
+        <v>-1.23</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1493,28 +1475,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1316.3</v>
+        <v>872</v>
       </c>
       <c r="L9">
-        <v>0.530274342343794</v>
+        <v>0.4344576752528524</v>
       </c>
       <c r="M9">
-        <v>744.7</v>
+        <v>794.5</v>
       </c>
       <c r="N9">
-        <v>0.03281006992021078</v>
+        <v>0.04236565102861348</v>
       </c>
       <c r="O9">
-        <v>0.5657524880346426</v>
+        <v>0.9111238532110092</v>
       </c>
       <c r="P9">
-        <v>744.7</v>
+        <v>794.5</v>
       </c>
       <c r="Q9">
-        <v>0.03281006992021078</v>
+        <v>0.04236565102861348</v>
       </c>
       <c r="R9">
-        <v>0.5657524880346426</v>
+        <v>0.9111238532110092</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1523,55 +1505,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>11766</v>
+        <v>14343.4</v>
       </c>
       <c r="V9">
-        <v>0.5183876496323352</v>
+        <v>0.764842641867608</v>
       </c>
       <c r="W9">
-        <v>0.1204509475572149</v>
+        <v>0.07522234586751551</v>
       </c>
       <c r="X9">
-        <v>0.0642549455317933</v>
+        <v>0.0625589936723546</v>
       </c>
       <c r="Y9">
-        <v>0.05619600202542158</v>
+        <v>0.01266335219516092</v>
       </c>
       <c r="Z9">
-        <v>0.0863600940731154</v>
+        <v>0.07793866955572899</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04499510255417972</v>
+        <v>0.04075096922378584</v>
       </c>
       <c r="AC9">
-        <v>-0.04499510255417972</v>
+        <v>-0.04075096922378584</v>
       </c>
       <c r="AD9">
-        <v>25926</v>
+        <v>23324</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>25926</v>
+        <v>23324</v>
       </c>
       <c r="AG9">
-        <v>14160</v>
+        <v>8980.6</v>
       </c>
       <c r="AH9">
-        <v>0.5332011607603762</v>
+        <v>0.5543118158441348</v>
       </c>
       <c r="AI9">
-        <v>0.6682251541949003</v>
+        <v>0.6418307200369842</v>
       </c>
       <c r="AJ9">
-        <v>0.3841844085160877</v>
+        <v>0.3238119275978943</v>
       </c>
       <c r="AK9">
-        <v>0.5238178031466061</v>
+        <v>0.408275899692677</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1597,10 +1579,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0718</v>
+        <v>-0.00434</v>
       </c>
       <c r="E10">
-        <v>-0.0405</v>
+        <v>-0.331</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1615,85 +1597,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>100.2</v>
+        <v>17.3</v>
       </c>
       <c r="L10">
-        <v>0.2948793407886992</v>
+        <v>0.06744639376218324</v>
       </c>
       <c r="M10">
-        <v>95.703</v>
+        <v>58.764</v>
       </c>
       <c r="N10">
-        <v>0.07055662046593925</v>
+        <v>0.05325720500271887</v>
       </c>
       <c r="O10">
-        <v>0.9551197604790419</v>
+        <v>3.396763005780347</v>
       </c>
       <c r="P10">
-        <v>95.7</v>
+        <v>58.5</v>
       </c>
       <c r="Q10">
-        <v>0.07055440872898849</v>
+        <v>0.05301794453507341</v>
       </c>
       <c r="R10">
-        <v>0.9550898203592815</v>
+        <v>3.38150289017341</v>
       </c>
       <c r="S10">
-        <v>0.003000000000000114</v>
+        <v>0.2640000000000029</v>
       </c>
       <c r="T10">
-        <v>3.134697971850531e-05</v>
+        <v>0.004492546457014548</v>
       </c>
       <c r="U10">
-        <v>926.1</v>
+        <v>770.3</v>
       </c>
       <c r="V10">
-        <v>0.6827631966971395</v>
+        <v>0.6981149175276418</v>
       </c>
       <c r="W10">
-        <v>0.04564088548783821</v>
+        <v>0.007817795652763342</v>
       </c>
       <c r="X10">
-        <v>0.07912256497745364</v>
+        <v>0.09481782372925616</v>
       </c>
       <c r="Y10">
-        <v>-0.03348167948961543</v>
+        <v>-0.08700002807649282</v>
       </c>
       <c r="Z10">
-        <v>0.1044124877089479</v>
+        <v>0.0662106350025813</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04525313017525191</v>
+        <v>0.04134148435837939</v>
       </c>
       <c r="AC10">
-        <v>-0.04525313017525191</v>
+        <v>-0.04134148435837939</v>
       </c>
       <c r="AD10">
-        <v>2587.2</v>
+        <v>2989.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2587.2</v>
+        <v>2989.8</v>
       </c>
       <c r="AG10">
-        <v>1661.1</v>
+        <v>2219.5</v>
       </c>
       <c r="AH10">
-        <v>0.6560503093620043</v>
+        <v>0.7304309586631487</v>
       </c>
       <c r="AI10">
-        <v>0.5386072655355469</v>
+        <v>0.5849964780464898</v>
       </c>
       <c r="AJ10">
-        <v>0.5504888152444076</v>
+        <v>0.6679406542477956</v>
       </c>
       <c r="AK10">
-        <v>0.4284056326404291</v>
+        <v>0.5113466190531045</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1719,13 +1701,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.07780000000000001</v>
+        <v>-0.00735</v>
       </c>
       <c r="E11">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.113</v>
+        <v>-0.205</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1740,28 +1719,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>59.9</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>0.3016112789526687</v>
+        <v>0.1222307104660046</v>
       </c>
       <c r="M11">
-        <v>33.6</v>
+        <v>38.2</v>
       </c>
       <c r="N11">
-        <v>0.0381211708645337</v>
+        <v>0.05479059093516925</v>
       </c>
       <c r="O11">
-        <v>0.5609348914858098</v>
+        <v>2.3875</v>
       </c>
       <c r="P11">
-        <v>33.6</v>
+        <v>38.2</v>
       </c>
       <c r="Q11">
-        <v>0.0381211708645337</v>
+        <v>0.05479059093516925</v>
       </c>
       <c r="R11">
-        <v>0.5609348914858098</v>
+        <v>2.3875</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1770,55 +1749,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>901.4</v>
+        <v>907.5</v>
       </c>
       <c r="V11">
-        <v>1.022691173133651</v>
+        <v>1.301635111876076</v>
       </c>
       <c r="W11">
-        <v>0.06792923565434339</v>
+        <v>0.01321986284392299</v>
       </c>
       <c r="X11">
-        <v>0.08707254121659123</v>
+        <v>0.1038686580419824</v>
       </c>
       <c r="Y11">
-        <v>-0.01914330556224784</v>
+        <v>-0.09064879519805945</v>
       </c>
       <c r="Z11">
-        <v>0.1010687022900763</v>
+        <v>0.05568554047730464</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04545965353965299</v>
+        <v>0.04156808212532202</v>
       </c>
       <c r="AC11">
-        <v>-0.04545965353965299</v>
+        <v>-0.04156808212532202</v>
       </c>
       <c r="AD11">
-        <v>2041.8</v>
+        <v>2175.9</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>2041.8</v>
+        <v>2175.9</v>
       </c>
       <c r="AG11">
-        <v>1140.4</v>
+        <v>1268.4</v>
       </c>
       <c r="AH11">
-        <v>0.6984811165845649</v>
+        <v>0.7573352824475305</v>
       </c>
       <c r="AI11">
-        <v>0.6256089714128137</v>
+        <v>0.6520527419838178</v>
       </c>
       <c r="AJ11">
-        <v>0.5640518349985162</v>
+        <v>0.6452991452991453</v>
       </c>
       <c r="AK11">
-        <v>0.4827498624222156</v>
+        <v>0.5220827330726487</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1844,10 +1823,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.00379</v>
+        <v>0.0174</v>
       </c>
       <c r="E12">
-        <v>0.09089999999999999</v>
+        <v>-0.07139999999999999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1862,85 +1841,85 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>259.9</v>
+        <v>162.2</v>
       </c>
       <c r="L12">
-        <v>0.4072391099968661</v>
+        <v>0.2979974278890318</v>
       </c>
       <c r="M12">
-        <v>631.7</v>
+        <v>130.3</v>
       </c>
       <c r="N12">
-        <v>0.2403820541116481</v>
+        <v>0.07101204425309282</v>
       </c>
       <c r="O12">
-        <v>2.430550211619854</v>
+        <v>0.8033292231812579</v>
       </c>
       <c r="P12">
-        <v>130.8</v>
+        <v>130.3</v>
       </c>
       <c r="Q12">
-        <v>0.04977358346969063</v>
+        <v>0.07101204425309282</v>
       </c>
       <c r="R12">
-        <v>0.5032704886494807</v>
+        <v>0.8033292231812579</v>
       </c>
       <c r="S12">
-        <v>500.9</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.792939686560076</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2106.8</v>
+        <v>2748.4</v>
       </c>
       <c r="V12">
-        <v>0.8017047832870353</v>
+        <v>1.49784729413047</v>
       </c>
       <c r="W12">
-        <v>0.09342535677055248</v>
+        <v>0.05490302271265612</v>
       </c>
       <c r="X12">
-        <v>0.08025710357045585</v>
+        <v>0.08634602446066147</v>
       </c>
       <c r="Y12">
-        <v>0.01316825320009664</v>
+        <v>-0.03144300174800535</v>
       </c>
       <c r="Z12">
-        <v>0.1032535714863531</v>
+        <v>0.09051451757741044</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04804674120068241</v>
+        <v>0.04410968792882153</v>
       </c>
       <c r="AC12">
-        <v>-0.04804674120068241</v>
+        <v>-0.04410968792882153</v>
       </c>
       <c r="AD12">
-        <v>5165.9</v>
+        <v>4265.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>5165.9</v>
+        <v>4265.5</v>
       </c>
       <c r="AG12">
-        <v>3059.099999999999</v>
+        <v>1517.1</v>
       </c>
       <c r="AH12">
-        <v>0.6628217300931509</v>
+        <v>0.6992164448232904</v>
       </c>
       <c r="AI12">
-        <v>0.6231483715319662</v>
+        <v>0.5899396990484621</v>
       </c>
       <c r="AJ12">
-        <v>0.5379110251450676</v>
+        <v>0.4525954653937947</v>
       </c>
       <c r="AK12">
-        <v>0.4947438219692069</v>
+        <v>0.338487282463186</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1966,10 +1945,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0633</v>
+        <v>0.0487</v>
       </c>
       <c r="E13">
-        <v>-0.0771</v>
+        <v>0.0524</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1978,91 +1957,91 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.005161789359907213</v>
+        <v>0.004827925368022581</v>
       </c>
       <c r="J13">
-        <v>0.004580944079688135</v>
+        <v>0.004308513530586955</v>
       </c>
       <c r="K13">
-        <v>100.8</v>
+        <v>215.2</v>
       </c>
       <c r="L13">
-        <v>0.07086614173228346</v>
+        <v>0.1349554747272043</v>
       </c>
       <c r="M13">
-        <v>64.79000000000001</v>
+        <v>61.35</v>
       </c>
       <c r="N13">
-        <v>0.05016647309330237</v>
+        <v>0.06472201709041038</v>
       </c>
       <c r="O13">
-        <v>0.6427579365079366</v>
+        <v>0.2850836431226766</v>
       </c>
       <c r="P13">
-        <v>55.2</v>
+        <v>58</v>
       </c>
       <c r="Q13">
-        <v>0.04274099883855981</v>
+        <v>0.06118788901782889</v>
       </c>
       <c r="R13">
-        <v>0.5476190476190477</v>
+        <v>0.2695167286245354</v>
       </c>
       <c r="S13">
-        <v>9.590000000000003</v>
+        <v>3.350000000000001</v>
       </c>
       <c r="T13">
-        <v>0.1480166692390801</v>
+        <v>0.05460472697636514</v>
       </c>
       <c r="U13">
-        <v>4630.6</v>
+        <v>4632</v>
       </c>
       <c r="V13">
-        <v>3.585443283004259</v>
+        <v>4.886591412596266</v>
       </c>
       <c r="W13">
-        <v>0.06823720552396426</v>
+        <v>0.1315725116165322</v>
       </c>
       <c r="X13">
-        <v>0.1959336233396192</v>
+        <v>0.2517869750803353</v>
       </c>
       <c r="Y13">
-        <v>-0.127696417815655</v>
+        <v>-0.1202144634638031</v>
       </c>
       <c r="Z13">
-        <v>0.2145500224872949</v>
+        <v>0.2204889959170923</v>
       </c>
       <c r="AA13">
-        <v>0.0009828416553101297</v>
+        <v>0.000949979822254324</v>
       </c>
       <c r="AB13">
-        <v>0.05468318963892217</v>
+        <v>0.0565696864157483</v>
       </c>
       <c r="AC13">
-        <v>-0.05370034798361203</v>
+        <v>-0.05561970659349398</v>
       </c>
       <c r="AD13">
-        <v>10201.1</v>
+        <v>9303.799999999999</v>
       </c>
       <c r="AE13">
-        <v>26.2893540723399</v>
+        <v>26.00695104075597</v>
       </c>
       <c r="AF13">
-        <v>10227.38935407234</v>
+        <v>9329.806951040755</v>
       </c>
       <c r="AG13">
-        <v>5596.78935407234</v>
+        <v>4697.806951040755</v>
       </c>
       <c r="AH13">
-        <v>0.8878798154664618</v>
+        <v>0.9077712563205539</v>
       </c>
       <c r="AI13">
-        <v>0.73807252787702</v>
+        <v>0.7562394480379937</v>
       </c>
       <c r="AJ13">
-        <v>0.812507876249933</v>
+        <v>0.8321025146682012</v>
       </c>
       <c r="AK13">
-        <v>0.6066132482179312</v>
+        <v>0.6097004208885389</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2071,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>809.6111111111112</v>
+        <v>721.2248062015503</v>
       </c>
       <c r="AP13">
-        <v>444.1896312755825</v>
+        <v>364.1710814760275</v>
       </c>
     </row>
   </sheetData>
